--- a/财务系统数据库设计.xlsx
+++ b/财务系统数据库设计.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\games\库备份\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\games\库备份\文档\gitwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28050" windowHeight="9810" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28050" windowHeight="9810" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="借支单" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="发票" sheetId="5" r:id="rId5"/>
     <sheet name="附件" sheetId="10" r:id="rId6"/>
     <sheet name="付款方式表" sheetId="8" r:id="rId7"/>
-    <sheet name="现金日记账" sheetId="9" r:id="rId8"/>
-    <sheet name="回款情况" sheetId="7" r:id="rId9"/>
-    <sheet name="增值税发票详情" sheetId="6" r:id="rId10"/>
+    <sheet name="科目管理表" sheetId="11" r:id="rId8"/>
+    <sheet name="现金日记账" sheetId="9" r:id="rId9"/>
+    <sheet name="回款情况" sheetId="7" r:id="rId10"/>
+    <sheet name="增值税发票详情" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="371">
   <si>
     <t>表名：</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1459,6 +1460,29 @@
   <si>
     <t>company</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级科目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目层数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>classification</t>
   </si>
 </sst>
 </file>
@@ -2278,9 +2302,335 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" t="s">
+        <v>285</v>
+      </c>
+      <c r="E17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>286</v>
+      </c>
+      <c r="B18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>292</v>
+      </c>
+      <c r="B20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -3277,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4050,7 +4400,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4270,6 +4620,195 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -4514,330 +5053,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>273</v>
-      </c>
-      <c r="B14" t="s">
-        <v>272</v>
-      </c>
-      <c r="C14" t="s">
-        <v>274</v>
-      </c>
-      <c r="E14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>276</v>
-      </c>
-      <c r="B15" t="s">
-        <v>277</v>
-      </c>
-      <c r="C15" t="s">
-        <v>278</v>
-      </c>
-      <c r="E15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>279</v>
-      </c>
-      <c r="B16" t="s">
-        <v>280</v>
-      </c>
-      <c r="C16" t="s">
-        <v>281</v>
-      </c>
-      <c r="E16" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>283</v>
-      </c>
-      <c r="B17" t="s">
-        <v>284</v>
-      </c>
-      <c r="C17" t="s">
-        <v>285</v>
-      </c>
-      <c r="E17" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>286</v>
-      </c>
-      <c r="B18" t="s">
-        <v>287</v>
-      </c>
-      <c r="C18" t="s">
-        <v>288</v>
-      </c>
-      <c r="E18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>289</v>
-      </c>
-      <c r="B19" t="s">
-        <v>290</v>
-      </c>
-      <c r="C19" t="s">
-        <v>291</v>
-      </c>
-      <c r="E19" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>292</v>
-      </c>
-      <c r="B20" t="s">
-        <v>293</v>
-      </c>
-      <c r="C20" t="s">
-        <v>294</v>
-      </c>
-      <c r="E20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/财务系统数据库设计.xlsx
+++ b/财务系统数据库设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28050" windowHeight="9810" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28050" windowHeight="9810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="借支单" sheetId="1" r:id="rId1"/>
@@ -2832,7 +2832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -3627,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
